--- a/Stimulus code/LBTloop.xlsx
+++ b/Stimulus code/LBTloop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/GitHub/PIP/Stimulus code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F11502A-5A88-8448-BDD0-2E3AF2ABB462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766AFF67-85CA-424A-B95B-B202F71D9609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="540" windowWidth="27240" windowHeight="14820" xr2:uid="{214B2446-A2AB-7641-B4B8-77BC94CEF118}"/>
   </bookViews>
@@ -57,20 +57,26 @@
     <t>go</t>
   </si>
   <si>
-    <t>pip1</t>
+    <t>pip3</t>
   </si>
   <si>
-    <t>pip2</t>
+    <t>pip4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -414,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0CF180-7523-094E-BA78-6B9987106881}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -982,6 +988,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>